--- a/movie_database.xlsx
+++ b/movie_database.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t xml:space="preserve">Customers</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie</t>
+    <t xml:space="preserve">Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Types</t>
   </si>
   <si>
     <t xml:space="preserve">customer_id</t>
@@ -61,106 +67,247 @@
     <t xml:space="preserve">genre</t>
   </si>
   <si>
+    <t xml:space="preserve">genre_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment_type_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roger Woodard</t>
   </si>
   <si>
-    <t xml:space="preserve">"46 Grandison Road, Liverpool",L4 9SX</t>
+    <t xml:space="preserve">46 Grandison Road, Liverpool</t>
   </si>
   <si>
     <t xml:space="preserve">Gold</t>
   </si>
   <si>
+    <t xml:space="preserve">The Big Lebowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimate L.A. slacker Jeff "The Dude" Lebowski, mistaken for a millionaire of the same name, seeks restitution for a rug ruined by debt collectors, enlisting his bowling buddies for help while trying to find the millionaire's missing wife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies centered around comedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conner Friedman</t>
   </si>
   <si>
-    <t xml:space="preserve">"2 Alba Close, Hayes",UB4 9PT</t>
+    <t xml:space="preserve">2 Alba Close, Hayes</t>
   </si>
   <si>
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
+    <t xml:space="preserve">Fantastic Mr. Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An urbane fox cannot resist returning to his farm raiding ways and then must help his community survive the farmers' retaliation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic hand-drawn animated movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andreas Saunders</t>
   </si>
   <si>
-    <t xml:space="preserve">"2 Ragnall Cottage, Ragnalls Lane, Horton Cum Studley",OX33 1AR</t>
+    <t xml:space="preserve">2 Ragnall Cottage, Ragnalls Lane, Horton Cum Studley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shark Tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a son of a gangster shark boss is accidentally killed while on the hunt, his would-be prey and his vegetarian brother decide to use the incident to their own advantage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action packed blockbusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit Card</t>
   </si>
   <si>
     <t xml:space="preserve">Summer Rodgers</t>
   </si>
   <si>
-    <t xml:space="preserve">"Flat 3A Rear, 3A Prince Of Wales Road, Bournemouth",BH4 9HA</t>
+    <t xml:space="preserve">Flat 3A Rear, 3A Prince Of Wales Road, Bournemouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Mononoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a journey to find the cure for a Tatarigami's curse, Ashitaka finds himself in the middle of a war between the forest gods and Tatara, a mining colony. In this quest he also meets San, the Mononoke Hime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tense and dramatic movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift Voucher</t>
   </si>
   <si>
     <t xml:space="preserve">Aiza Ayers</t>
   </si>
   <si>
-    <t xml:space="preserve">"25 Shamrock Way, London",N14 5SA</t>
+    <t xml:space="preserve">25 Shamrock Way, London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Neighbour Totoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When two girls move to the country to be near their ailing mother, they have adventures with the wondrous forest spirits who live nearby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A delve into the criminal underword</t>
   </si>
   <si>
     <t xml:space="preserve">Lorraine Stevenson</t>
   </si>
   <si>
-    <t xml:space="preserve">"51 Randolph Road, Portsmouth",PO2 0SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">51 Randolph Road, Portsmouth, PO2 0SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive My Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A renowned stage actor and director learns to cope with a big personal loss when he receives an offer to direct a production of Uncle Vanya in Hiroshima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop-Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop-Motion animated movies</t>
   </si>
   <si>
     <t xml:space="preserve">Jim Boyer</t>
   </si>
   <si>
-    <t xml:space="preserve">"Flat 13, The Beeches, London Road, Mitcham",CR4 4BH</t>
+    <t xml:space="preserve">Flat 13, The Beeches, London Road, Mitcham, CR4 4BH</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
   </si>
   <si>
+    <t xml:space="preserve">A Serious Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larry Gopnik, a Midwestern physics teacher, watches his life unravel over multiple sudden incidents. Though seeking meaning and answers amidst his turmoils, he seems to keep sinking.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amanda Lawson</t>
   </si>
   <si>
-    <t xml:space="preserve">"27 Ferry Lane, Offenham",WR11 8RT</t>
+    <t xml:space="preserve">27 Ferry Lane, Offenham, WR11 8RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision To Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A detective investigating a man's death in the mountains meets the dead man's mysterious wife in the course of his dogged sleuthing.</t>
   </si>
   <si>
     <t xml:space="preserve">Everett Kirk</t>
   </si>
   <si>
-    <t xml:space="preserve">"Bacons Yard, Aubrey North Farm, Keyhaven",SO41 0TH</t>
+    <t xml:space="preserve">Bacons Yard, Aubrey North Farm, Keyhaven, SO41 0TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banshees of Inisherin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two lifelong friends find themselves at an impasse when one abruptly ends their relationship, with alarming consequences for both of them.</t>
   </si>
   <si>
     <t xml:space="preserve">Shannon Fischer</t>
   </si>
   <si>
-    <t xml:space="preserve">"1 Meadow Cottages, Ironbridge Road, Madeley",TF7 5JX</t>
+    <t xml:space="preserve">1 Meadow Cottages, Ironbridge Road, Madeley, TF7 5JX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything Everywhere All At Once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A middle-aged Chinese immigrant is swept up into an insane adventure in which she alone can save existence by exploring other universes and connecting with the lives she could have led.</t>
   </si>
   <si>
     <t xml:space="preserve">Sameer Khan</t>
   </si>
   <si>
-    <t xml:space="preserve">"10 Plantation Close, Attleborough",NR17 2LY</t>
+    <t xml:space="preserve">10 Plantation Close, Attleborough, NR17 2LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Iron Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young boy befriends a giant robot from outer space that a paranoid government agent wants to destroy.</t>
   </si>
   <si>
     <t xml:space="preserve">Gareth Ellis</t>
   </si>
   <si>
-    <t xml:space="preserve">"Gwelfryn, Penysarn",LL69 9YS</t>
+    <t xml:space="preserve">Gwelfryn, Penysarn, LL69 9YS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Incredibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While trying to lead a quiet suburban life, a family of undercover superheroes are forced into action to save the world.</t>
   </si>
   <si>
     <t xml:space="preserve">Emilie Wilkins</t>
   </si>
   <si>
-    <t xml:space="preserve">"2 The Gallery, 38 Ludgate Hill, London",EC4M 7DE</t>
+    <t xml:space="preserve">2 The Gallery, 38 Ludgate Hill, London, EC4M 7DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit the Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follows a chaotic, tender family that is on a road trip across a rugged landscape and fussing over the sick dog and getting on each others' nerves. Only the mysterious older brother is quiet.</t>
   </si>
   <si>
     <t xml:space="preserve">Safia Watts</t>
   </si>
   <si>
-    <t xml:space="preserve">"3 Noonan Close, Redditch",B97 4NN</t>
+    <t xml:space="preserve">3 Noonan Close, Redditch, B97 4NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Miss Sunshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A family determined to get their young daughter into the finals of a beauty pageant take a cross-country trip in their VW bus.</t>
   </si>
   <si>
     <t xml:space="preserve">Murray Trujillo</t>
   </si>
   <si>
-    <t xml:space="preserve">"11 Westfield Drive, Crook",DL15 9NX</t>
+    <t xml:space="preserve">11 Westfield Drive, Crook, DL15 9NX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The magically long-haired Rapunzel has spent her entire life in a tower, but now that a runaway thief has stumbled upon her, she is about to discover the world for the first time, and who she really is.</t>
   </si>
 </sst>
 </file>
@@ -171,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,16 +345,31 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +384,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009353"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -265,6 +457,88 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
+        <color rgb="FFCE181E"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCE181E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCE181E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCE181E"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCE181E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF009353"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF009353"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF009353"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF009353"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF009353"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFAA61A"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFAA61A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFAA61A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
@@ -284,6 +558,133 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCE181E"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCE181E"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF009353"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF009353"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFAA61A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFAA61A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFAA61A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFAA61A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF009353"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF009353"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF009353"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF009353"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF009353"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCE181E"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCE181E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCE181E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCE181E"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCE181E"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,7 +714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,43 +727,159 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,8 +895,8 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -390,17 +907,17 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF009353"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -421,7 +938,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -443,19 +960,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:U18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="69.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="227.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.82"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,298 +998,672 @@
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="L3" s="15" t="s">
         <v>12</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="22" t="n">
         <v>36466</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="25" t="n">
         <v>15</v>
+      </c>
+      <c r="M4" s="25" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="N4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>34649</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="15" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N5" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="n">
+      <c r="C6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="22" t="n">
         <v>33529</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
+      <c r="E6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>32779</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8" t="n">
+      <c r="C8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="22" t="n">
         <v>34926</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
+      <c r="E8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="25" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12" t="n">
         <v>31535</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>27</v>
+      <c r="E9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="n">
+      <c r="C10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="22" t="n">
         <v>36255</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
+      <c r="E10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" s="25" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12" t="n">
         <v>36890</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="15" t="n">
         <v>15</v>
+      </c>
+      <c r="M11" s="15" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8" t="n">
+      <c r="C12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="22" t="n">
         <v>37116</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" s="25" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="N12" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="n">
+      <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="12" t="n">
         <v>37286</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
+      <c r="E13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" s="15" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="22" t="n">
         <v>35772</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
+      <c r="E14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="25" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="N14" s="26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="12" t="n">
         <v>33246</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
+      <c r="E15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" s="15" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N15" s="16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8" t="n">
+      <c r="C16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="22" t="n">
         <v>36679</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>15</v>
+      <c r="E16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" s="25" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N16" s="26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="12" t="n">
         <v>33575</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
+      <c r="E17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" s="15" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="N17" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="n">
+      <c r="C18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="37" t="n">
         <v>31176</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="39" t="n">
         <v>15</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="40" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N18" s="41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/movie_database.xlsx
+++ b/movie_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t xml:space="preserve">Customers</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genre</t>
   </si>
   <si>
     <t xml:space="preserve">genre_id</t>
@@ -318,7 +315,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,19 +351,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -714,7 +698,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,11 +735,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,11 +775,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,19 +811,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -963,10 +939,10 @@
   <dimension ref="B2:U18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.88"/>
@@ -978,13 +954,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="227.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="38.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>10</v>
@@ -1057,60 +1033,60 @@
         <v>11</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>36466</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <v>36466</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="I4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="24" t="n">
+      <c r="K4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" s="24" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="N4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="25" t="s">
+      <c r="P4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" s="25" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="N4" s="26" t="n">
+      <c r="R4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="28" t="s">
+      <c r="U4" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="T4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,25 +1094,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>34649</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="14" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="15" t="n">
         <v>3</v>
@@ -1151,66 +1127,66 @@
         <v>2</v>
       </c>
       <c r="Q5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="T5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="U5" s="20" t="s">
-        <v>32</v>
+      <c r="U5" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>33529</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="n">
-        <v>33529</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="24" t="n">
+      <c r="K6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="25" t="s">
+      <c r="M6" s="24" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="25" t="n">
+      <c r="R6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="25" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="N6" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="28" t="s">
+      <c r="U6" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="T6" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,25 +1194,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>32779</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="14" t="n">
         <v>4</v>
       </c>
       <c r="J7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>12</v>
@@ -1251,60 +1227,60 @@
         <v>4</v>
       </c>
       <c r="Q7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="T7" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="T7" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>34926</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="22" t="n">
-        <v>34926</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="24" t="n">
+      <c r="K8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="24" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="N8" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="25" t="s">
+      <c r="Q8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="25" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="N8" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="25" t="s">
+      <c r="R8" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,25 +1288,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12" t="n">
         <v>31535</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L9" s="15" t="n">
         <v>3</v>
@@ -1341,48 +1317,48 @@
       <c r="N9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="P9" s="33" t="n">
+      <c r="P9" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>36255</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="22" t="n">
-        <v>36255</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="I10" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="25" t="n">
+      <c r="L10" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="M10" s="25" t="n">
+      <c r="M10" s="24" t="n">
         <v>7.99</v>
       </c>
-      <c r="N10" s="26" t="n">
+      <c r="N10" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,25 +1367,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12" t="n">
         <v>36890</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="14" t="n">
         <v>8</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>15</v>
@@ -1422,37 +1398,37 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>37116</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="22" t="n">
-        <v>37116</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="25" t="n">
+      <c r="L12" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="M12" s="25" t="n">
+      <c r="M12" s="24" t="n">
         <v>11.99</v>
       </c>
-      <c r="N12" s="26" t="n">
+      <c r="N12" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,25 +1437,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="12" t="n">
         <v>37286</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>15</v>
@@ -1492,37 +1468,37 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>35772</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="22" t="n">
-        <v>35772</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="25" t="n">
+      <c r="L14" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="25" t="n">
+      <c r="M14" s="24" t="n">
         <v>5.99</v>
       </c>
-      <c r="N14" s="26" t="n">
+      <c r="N14" s="25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1531,25 +1507,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="12" t="n">
         <v>33246</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="14" t="n">
         <v>12</v>
       </c>
       <c r="J15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>3</v>
@@ -1562,37 +1538,37 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>36679</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="22" t="n">
-        <v>36679</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="25" t="n">
+      <c r="L16" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="M16" s="25" t="n">
+      <c r="M16" s="24" t="n">
         <v>7.99</v>
       </c>
-      <c r="N16" s="26" t="n">
+      <c r="N16" s="25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1601,25 +1577,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="12" t="n">
         <v>33575</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14" t="n">
         <v>14</v>
       </c>
       <c r="J17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>15</v>
@@ -1632,37 +1608,37 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="36" t="n">
+      <c r="B18" s="34" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="35" t="n">
+        <v>31176</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="37" t="n">
-        <v>31176</v>
-      </c>
-      <c r="E18" s="37" t="s">
+      <c r="F18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="37" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" s="40" t="s">
+      <c r="K18" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="40" t="n">
+      <c r="L18" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="40" t="n">
+      <c r="M18" s="38" t="n">
         <v>4.99</v>
       </c>
-      <c r="N18" s="41" t="n">
+      <c r="N18" s="39" t="n">
         <v>3</v>
       </c>
     </row>

--- a/movie_database.xlsx
+++ b/movie_database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t xml:space="preserve">Customers</t>
   </si>
@@ -115,7 +115,10 @@
     <t xml:space="preserve">Classic hand-drawn animated movies</t>
   </si>
   <si>
-    <t xml:space="preserve">Credit Card</t>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit Card</t>
   </si>
   <si>
     <t xml:space="preserve">Andreas Saunders</t>
@@ -136,7 +139,10 @@
     <t xml:space="preserve">Action packed blockbusters</t>
   </si>
   <si>
-    <t xml:space="preserve">Debit Card</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift Voucher</t>
   </si>
   <si>
     <t xml:space="preserve">Summer Rodgers</t>
@@ -157,9 +163,6 @@
     <t xml:space="preserve">Tense and dramatic movies</t>
   </si>
   <si>
-    <t xml:space="preserve">Gift Voucher</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aiza Ayers</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">The magically long-haired Rapunzel has spent her entire life in a tower, but now that a runaway thief has stumbled upon her, she is about to discover the world for the first time, and who she really is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membership</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,8 +358,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,7 +389,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -402,8 +428,20 @@
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00599D"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -669,6 +707,37 @@
       <top/>
       <bottom style="thin">
         <color rgb="FFCE181E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00599D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF00599D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF00599D"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00599D"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00599D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,7 +767,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,6 +884,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -856,6 +941,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -892,7 +993,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF00599D"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -906,7 +1007,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -936,19 +1037,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:U18"/>
+  <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="69.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="227.35"/>
@@ -960,7 +1062,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="38.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.84"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,11 +1234,11 @@
       <c r="R5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" s="15" t="s">
+      <c r="T5" s="29" t="s">
         <v>31</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>33529</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>26</v>
@@ -1159,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="24" t="n">
         <v>3</v>
@@ -1177,16 +1279,16 @@
         <v>3</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" s="24" t="s">
         <v>38</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>32779</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>26</v>
@@ -1209,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>12</v>
@@ -1227,30 +1329,26 @@
         <v>4</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" s="30" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="20" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>34926</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>26</v>
@@ -1259,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="24" t="n">
         <v>3</v>
@@ -1277,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,13 +1386,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12" t="n">
         <v>31535</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>18</v>
@@ -1303,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="15" t="n">
         <v>3</v>
@@ -1317,14 +1415,14 @@
       <c r="N9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="P9" s="31" t="n">
+      <c r="P9" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="33" t="s">
+      <c r="Q9" s="36" t="s">
         <v>57</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,25 +1430,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>36255</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="23" t="n">
         <v>7</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="24" t="n">
         <v>12</v>
@@ -1367,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="12" t="n">
         <v>36890</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>18</v>
@@ -1382,10 +1480,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>15</v>
@@ -1402,13 +1500,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>37116</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>26</v>
@@ -1417,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="24" t="n">
         <v>15</v>
@@ -1437,13 +1535,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="12" t="n">
         <v>37286</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>26</v>
@@ -1452,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>15</v>
@@ -1472,13 +1570,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>35772</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>26</v>
@@ -1487,10 +1585,10 @@
         <v>11</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="24" t="n">
         <v>3</v>
@@ -1507,25 +1605,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="12" t="n">
         <v>33246</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" s="14" t="n">
         <v>12</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>3</v>
@@ -1542,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>36679</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>18</v>
@@ -1557,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="24" t="n">
         <v>12</v>
@@ -1577,13 +1675,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="12" t="n">
         <v>33575</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>26</v>
@@ -1592,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>15</v>
@@ -1608,38 +1706,58 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="34" t="n">
+      <c r="B18" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="35" t="n">
+      <c r="C18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="39" t="n">
         <v>31176</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="37" t="n">
+      <c r="I18" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="J18" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="38" t="s">
+      <c r="J18" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="38" t="n">
+      <c r="K18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="38" t="n">
+      <c r="M18" s="42" t="n">
         <v>4.99</v>
       </c>
-      <c r="N18" s="39" t="n">
+      <c r="N18" s="43" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="47" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
